--- a/data/simple_3.xlsx
+++ b/data/simple_3.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="MARGINAL">Foglio1!$J$10:$L$14</definedName>
     <definedName name="MODEL">Foglio1!$B$10:$F$10</definedName>
-    <definedName name="PARAMETERS">Foglio1!$D$3:$F$5</definedName>
+    <definedName name="PARAMETERS">Foglio1!$K$5:$M$7</definedName>
     <definedName name="VARNAME">Foglio1!$B$7:$F$7</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L22"/>
+  <dimension ref="A5:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,40 +421,35 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="K6">
         <v>0.5</v>
       </c>
-      <c r="E4">
+      <c r="L6">
         <v>0.5</v>
       </c>
-      <c r="F4">
+      <c r="M6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -473,8 +468,11 @@
       <c r="F7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40179</v>
       </c>
@@ -494,7 +492,7 @@
         <v>0.36330198619804854</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40269</v>
       </c>
@@ -514,7 +512,7 @@
         <v>0.85392383805789007</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40360</v>
       </c>
@@ -525,15 +523,15 @@
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <f>(D8-D$3)*D$4</f>
+        <f>(D8-K$5)*K$6</f>
         <v>-0.34909639611770826</v>
       </c>
       <c r="E10" s="2">
-        <f>(E8-E$3)*E$4+0.02*B10+0.003*C8</f>
+        <f>(E8-L$5)*L$6+0.02*B10+0.003*C8</f>
         <v>-0.27364776577268163</v>
       </c>
       <c r="F10" s="2">
-        <f>(F8-F$3)*F$4+$F$5*MAX(D10,E10)+0*+LEN(F7)</f>
+        <f>(F8-M$5)*M$6+$M$7*MAX(D10,E10)+0*LEN(F7)</f>
         <v>-0.59199677267365736</v>
       </c>
       <c r="K10" t="s">
@@ -543,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40452</v>
       </c>
@@ -554,15 +552,15 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:E11" si="0">(D9-D$3)*D$4</f>
+        <f>(D9-K$5)*K$6</f>
         <v>-7.3141316848081506E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>(E9-L$5)*L$6</f>
         <v>-0.38763788269994887</v>
       </c>
       <c r="F11">
-        <f>(F9-F$3)*F$4+$F$5*MAX(D11,E11)+0*+LEN(F7)</f>
+        <f>(F9-M$5)*M$6+$M$7*MAX(D11,E11)+0*LEN(F8)</f>
         <v>-0.14617939781913647</v>
       </c>
       <c r="J11" t="s">
@@ -575,7 +573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40544</v>
       </c>
@@ -586,15 +584,15 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:E12" si="1">(D10-D$3)*D$4</f>
+        <f>(D10-K$5)*K$6</f>
         <v>-0.67454819805885413</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f>(E10-L$5)*L$6</f>
         <v>-0.63682388288634084</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F11:F22" si="2">(F10-F$3)*F$4+$F$5*MAX(D12,E12)</f>
+        <f>(F10-M$5)*M$6+$M$7*MAX(D12,E12)+0*LEN(F9)</f>
         <v>-1.4328222692231696</v>
       </c>
       <c r="J12" t="s">
@@ -607,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40634</v>
       </c>
@@ -618,15 +616,15 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:E13" si="3">(D11-D$3)*D$4</f>
+        <f>(D11-K$5)*K$6</f>
         <v>-0.53657065842404073</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f>(E11-L$5)*L$6</f>
         <v>-0.69381894134997446</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f>(F11-M$5)*M$6+$M$7*MAX(D13,E13)+0*LEN(F10)</f>
         <v>-1.1096603573336088</v>
       </c>
       <c r="J13" t="s">
@@ -639,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40725</v>
       </c>
@@ -650,15 +648,15 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:E14" si="4">(D12-D$3)*D$4</f>
+        <f>(D12-K$5)*K$6</f>
         <v>-0.83727409902942707</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f>(E12-L$5)*L$6</f>
         <v>-0.81841194144317042</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
+        <f>(F12-M$5)*M$6+$M$7*MAX(D14,E14)+0*LEN(F11)</f>
         <v>-2.0348230760547552</v>
       </c>
       <c r="J14" t="s">
@@ -671,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40817</v>
       </c>
@@ -682,19 +680,19 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:E15" si="5">(D13-D$3)*D$4</f>
+        <f>(D13-K$5)*K$6</f>
         <v>-0.76828532921202042</v>
       </c>
       <c r="E15">
-        <f t="shared" si="5"/>
+        <f>(E13-L$5)*L$6</f>
         <v>-0.84690947067498723</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f>(F13-M$5)*M$6+$M$7*MAX(D15,E15)+0*LEN(F12)</f>
         <v>-1.8231155078788248</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40909</v>
       </c>
@@ -705,19 +703,19 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:E16" si="6">(D14-D$3)*D$4</f>
+        <f>(D14-K$5)*K$6</f>
         <v>-0.91863704951471359</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f>(E14-L$5)*L$6</f>
         <v>-0.90920597072158515</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f>(F14-M$5)*M$6+$M$7*MAX(D16,E16)+0*LEN(F13)</f>
         <v>-2.4266175087489628</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>41000</v>
       </c>
@@ -728,19 +726,19 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:E17" si="7">(D15-D$3)*D$4</f>
+        <f>(D15-K$5)*K$6</f>
         <v>-0.88414266460601021</v>
       </c>
       <c r="E17">
-        <f t="shared" si="7"/>
+        <f>(E15-L$5)*L$6</f>
         <v>-0.92345473533749356</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f>(F15-M$5)*M$6+$M$7*MAX(D17,E17)+0*LEN(F14)</f>
         <v>-2.2957004185454224</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>41091</v>
       </c>
@@ -751,19 +749,19 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:E18" si="8">(D16-D$3)*D$4</f>
+        <f>(D16-K$5)*K$6</f>
         <v>-0.95931852475735679</v>
       </c>
       <c r="E18">
-        <f t="shared" si="8"/>
+        <f>(E16-L$5)*L$6</f>
         <v>-0.95460298536079258</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
+        <f>(F16-M$5)*M$6+$M$7*MAX(D18,E18)+0*LEN(F15)</f>
         <v>-2.6679117397352741</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>41183</v>
       </c>
@@ -774,19 +772,23 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:E19" si="9">(D17-D$3)*D$4</f>
+        <f>(D17-K$5)*K$6</f>
         <v>-0.9420713323030051</v>
       </c>
       <c r="E19">
-        <f t="shared" si="9"/>
+        <f>(E17-L$5)*L$6</f>
         <v>-0.96172736766874678</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f>(F17-M$5)*M$6+$M$7*MAX(D19,E19)+0*LEN(F16)</f>
         <v>-2.5899215415757162</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P19" t="e">
+        <f>3*+LEN(J11:L11)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>41275</v>
       </c>
@@ -797,19 +799,19 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:E20" si="10">(D18-D$3)*D$4</f>
+        <f>(D18-K$5)*K$6</f>
         <v>-0.9796592623786784</v>
       </c>
       <c r="E20">
-        <f t="shared" si="10"/>
+        <f>(E18-L$5)*L$6</f>
         <v>-0.97730149268039623</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f>(F18-M$5)*M$6+$M$7*MAX(D20,E20)+0*LEN(F17)</f>
         <v>-2.8112573625480333</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>41365</v>
       </c>
@@ -820,19 +822,19 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:E21" si="11">(D19-D$3)*D$4</f>
+        <f>(D19-K$5)*K$6</f>
         <v>-0.9710356661515025</v>
       </c>
       <c r="E21">
-        <f t="shared" si="11"/>
+        <f>(E19-L$5)*L$6</f>
         <v>-0.98086368383437339</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f>(F19-M$5)*M$6+$M$7*MAX(D21,E21)+0*LEN(F18)</f>
         <v>-2.7659964369393606</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>41456</v>
       </c>
@@ -843,16 +845,20 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:E22" si="12">(D20-D$3)*D$4</f>
+        <f>(D20-K$5)*K$6</f>
         <v>-0.9898296311893392</v>
       </c>
       <c r="E22">
-        <f t="shared" si="12"/>
+        <f>(E20-L$5)*L$6</f>
         <v>-0.98865074634019812</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
+        <f>(F20-M$5)*M$6+$M$7*MAX(D22,E22)+0*LEN(F19)</f>
         <v>-2.8942794276142148</v>
+      </c>
+      <c r="I22">
+        <f>LEN(F7)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
